--- a/Task submission-1.xlsx
+++ b/Task submission-1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Divya\Corporate\Payoda\2024\Fresher batch\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899C8094-CBB8-45FF-A36D-4953C8ECE0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 &amp; 2" sheetId="2" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>TR10424</t>
   </si>
@@ -155,12 +149,52 @@
   </si>
   <si>
     <t>https://github.com/suburamaniyam/payoda-phase-1-trainee</t>
+  </si>
+  <si>
+    <t>Good understanding on the Agile concepts.</t>
+  </si>
+  <si>
+    <t>Completed: Good.(Mongodb)
+As query  is on the same field subject, in condition can hold both values.</t>
+  </si>
+  <si>
+    <t>Completed. Greendot - Planning meeting, Grey dots-  standup, end dot - Retrospective</t>
+  </si>
+  <si>
+    <t>Great work.</t>
+  </si>
+  <si>
+    <t>Good Work.</t>
+  </si>
+  <si>
+    <t>Good work.</t>
+  </si>
+  <si>
+    <t>Great Work.</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>Completed. Both should be false is $nor condition</t>
+  </si>
+  <si>
+    <t>Not submitted.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Excellent Work.</t>
+  </si>
+  <si>
+    <t>Great work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -359,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,6 +451,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,40 +791,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="15" customWidth="1"/>
-    <col min="5" max="5" width="5.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="5.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="5.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="5.296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.796875" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="15"/>
+    <col min="5" max="5" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -828,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -862,13 +902,17 @@
       <c r="K2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="M2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -881,26 +925,38 @@
       <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="G3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="I3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="K3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="M3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -928,17 +984,23 @@
       <c r="I4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -972,13 +1034,17 @@
       <c r="K5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1006,17 +1072,23 @@
       <c r="I6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="M6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1032,25 +1104,35 @@
       <c r="E7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="K7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="M7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1078,17 +1160,23 @@
       <c r="I8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="K8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="M8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1116,17 +1204,23 @@
       <c r="I9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="K9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="M9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1149,32 +1243,44 @@
         <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="K10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="M10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{4A4BA9B5-5C36-47E2-B8FB-78244650958D}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{E2445869-1D85-46AB-9980-EE1FF83791FF}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D7" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
